--- a/medicine/Mort/Vieux_cimetière_de_Vallauris/Vieux_cimetière_de_Vallauris.xlsx
+++ b/medicine/Mort/Vieux_cimetière_de_Vallauris/Vieux_cimetière_de_Vallauris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vieux_cimeti%C3%A8re_de_Vallauris</t>
+          <t>Vieux_cimetière_de_Vallauris</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vieux cimetière de Vallauris est l'un des deux cimetières communaux de Vallauris dans le département des 
-Alpes-Maritimes. Il est situé au sud du col Saint Bernard, près du centre ancien de Vallauris. Son entrée principale est dans la « Montée Sainte Anne », une entrée secondaire est au « Vieux chemin Saint Bernard »[1].
+Alpes-Maritimes. Il est situé au sud du col Saint Bernard, près du centre ancien de Vallauris. Son entrée principale est dans la « Montée Sainte Anne », une entrée secondaire est au « Vieux chemin Saint Bernard ».
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vieux_cimeti%C3%A8re_de_Vallauris</t>
+          <t>Vieux_cimetière_de_Vallauris</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vieux cimetière est disposé en terrasses en pente ; il possède des tombes à enfeu et est très peu végétalisé. Il présente encore une statuaire de la fin du XIXe siècle et quelques chapelles familiales[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vieux cimetière est disposé en terrasses en pente ; il possède des tombes à enfeu et est très peu végétalisé. Il présente encore une statuaire de la fin du XIXe siècle et quelques chapelles familiales.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vieux_cimeti%C3%A8re_de_Vallauris</t>
+          <t>Vieux_cimetière_de_Vallauris</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Antoine Ambrosio-Donnet (1887-1915), sculpteur.
 * Adrien (1892-1923) et Henri Roustan (1894-1923), deux lieutenants qui périrent dans la tragédie de Dixmude en 1923 (tombe de Jérôme Lendy).
